--- a/verbos.xlsx
+++ b/verbos.xlsx
@@ -30,7 +30,7 @@
     <t>vivir</t>
   </si>
   <si>
-    <t>mikuy</t>
+    <t>mikhuy</t>
   </si>
   <si>
     <t>comer</t>
@@ -335,7 +335,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
